--- a/similarities/split_global/harmonic_similarity_timestamps_229.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_229.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:56.480000')]</t>
+          <t>('0:00:55.580000', '0:01:06.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+          <t>('0:00:02.612267', '0:00:20.410362')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7', 'Bb']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:22.560000', '0:00:28.150000')]</t>
+          <t>('0:01:41.060000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:05.010000', '0:00:10.460000')]</t>
+          <t>('0:01:06.980000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=22.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=5.01']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'A:maj', 'A#:maj', 'A:maj']]</t>
+          <t>['E/4', 'A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'Eb', 'E', 'Eb']]</t>
+          <t>['B', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:57.860000', '0:01:03.220000')]</t>
+          <t>('0:00:06.779000', '0:00:12.481000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:04.820000', '0:00:06.840000')]</t>
+          <t>('0:00:02.676666', '0:00:26.140430')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=57.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=6.779</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=4.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=2.676666</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:02:00.400000', '0:02:03.780000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000')]</t>
+          <t>('0:00:25.720000', '0:00:51.960000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=120.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:11.680000')]</t>
+          <t>('0:00:01.900000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
+          <t>('0:00:07.800000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:7', 'A#:min', 'A:dim7/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:7', 'A#:min', 'A:dim7', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.400000', '0:01:07.940000'), ('0:01:04.220000', '0:01:09.760000'), ('0:01:16.560000', '0:01:27.040000')]</t>
+          <t>('0:01:21.340000', '0:01:32.140000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:14.480000', '0:00:22.820000'), ('0:00:57.600000', '0:01:00.720000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:17.920000', '0:00:23.340000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=64.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=81.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=17.92</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Bb:7']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:45.410000'), ('0:00:30.500000', '0:00:36.380000')]</t>
+          <t>('0:00:23.800000', '0:00:54.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:10.380000', '0:00:25.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61', 'https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:min/E', 'B:maj/D#']]</t>
+          <t>['F:min/G#', 'D#:maj/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'E:min', 'F#']]</t>
+          <t>['E:min', 'D', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:23.180000', '0:01:26')]</t>
+          <t>('0:01:20.260000', '0:01:25.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:33.686916', '0:00:42.951678')]</t>
+          <t>('0:00:16.560579', '0:00:21.866339')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=83.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=80.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=33.686916']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=16.560579</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['G:7', 'C', 'C/b7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:04.140000', '0:00:13.420000')]</t>
+          <t>('0:00:18.300000', '0:00:20.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.513843', '0:00:26.514661')]</t>
+          <t>('0:00:34.041000', '0:00:38.588000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=4.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=19.513843']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_68</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#:min7', 'F#:7', 'B:maj7']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj7']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:17.850000', '0:00:20.090000')]</t>
+          <t>('0:01:03.220000', '0:01:10.780000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:23.590000', '0:00:26.450000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=17.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=63.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-68#t=23.59']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:maj', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C', 'C:min', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:46.097000', '0:00:54.196000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:00:24.911369', '0:00:31.761256')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B', 'E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F#', 'B', 'E', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:01.740000', '0:02:05')]</t>
+          <t>('0:00:14.033000', '0:00:34.866000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
+          <t>('0:00:26.162131', '0:00:48.488117')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=121.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=26.162131</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+          <t>('0:00:07.360000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
